--- a/Sprint2 Backlog.xlsx
+++ b/Sprint2 Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdom\Desktop\Intranet\Software Engineering\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdom\SE-GUC\BEN-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D06F24-6F03-43F1-9DE1-471D287FAA67}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1673E39-23D8-43E3-A117-FAB1362EBEC4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="72">
   <si>
     <t>User story</t>
   </si>
@@ -301,6 +301,15 @@
   </si>
   <si>
     <t>3.9</t>
+  </si>
+  <si>
+    <t>As a partner I wanto to approve/disapprove the final review of a project</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>finished</t>
   </si>
 </sst>
 </file>
@@ -390,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -425,9 +434,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -770,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1492,35 +1498,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:K1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="77.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+    <row r="1" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A1" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="11">
+        <v>3</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42" x14ac:dyDescent="0.4">
+      <c r="A4" s="11">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
